--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yijingxiao/Desktop/ASDS dissertation/dissertation-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CA95CF-9356-E545-9F0B-EA92E776ADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0675C7-FB5E-CD4A-A421-E46A3FFED285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="sizes" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metadata!$A$1:$B$64</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Organisation</t>
   </si>
@@ -715,10 +721,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -764,7 +769,16 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1074,10 +1088,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B60" sqref="A1:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1113,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1185,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>7458</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1218,7 +1233,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1226,7 +1241,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1250,7 +1265,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1273,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1281,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1274,7 +1289,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1297,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1290,7 +1305,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1314,15 +1329,15 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>1071</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1353,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1361,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1354,7 +1369,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1393,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1434,7 +1449,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1450,7 +1465,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1482,7 +1497,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1490,15 +1505,15 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>3835</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1514,7 +1529,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1522,7 +1537,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1530,7 +1545,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1562,7 +1577,7 @@
         <v>9617</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1570,7 +1585,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1586,8 +1601,8 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64">
@@ -1595,6 +1610,252 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B64" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7A2610-C9A7-A04A-ADDD-D2285621E0B7}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>8608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>6582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>9617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f>AVERAGE(B2:B26)</f>
+        <v>4722.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f>MEDIAN(B2:B26)</f>
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>(B27+B28)/2</f>
+        <v>3280.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yijingxiao/Desktop/ASDS dissertation/dissertation-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0675C7-FB5E-CD4A-A421-E46A3FFED285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916EE82E-6AEB-DD43-BFE0-8F473BB6385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-1980" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="sizes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metadata!$A$1:$B$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metadata!$A$1:$B$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Organisation</t>
   </si>
@@ -232,6 +231,9 @@
   </si>
   <si>
     <t>care4calais</t>
+  </si>
+  <si>
+    <t>International Rescue Committee UK</t>
   </si>
 </sst>
 </file>
@@ -1088,11 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="A1:B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1114,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>7458</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>9617</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1585,277 +1586,40 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>19800</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B65">
         <v>26500</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>39600</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B64" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7A2610-C9A7-A04A-ADDD-D2285621E0B7}">
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>7548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>7605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>40600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>8608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>6582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25">
-        <v>6956</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26">
-        <v>9617</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <f>AVERAGE(B2:B26)</f>
-        <v>4722.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <f>MEDIAN(B2:B26)</f>
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <f>(B27+B28)/2</f>
-        <v>3280.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>